--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/GNSS competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/DATN_20232/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26ED98F0-64E6-46DF-B747-48416AEAD74D}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E1ED29-7B11-41F0-B2A1-C652EE59247D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11250" tabRatio="447" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data1" sheetId="4" r:id="rId2"/>
-    <sheet name="Project Tracking" sheetId="2" r:id="rId3"/>
-    <sheet name="Reference" sheetId="3" r:id="rId4"/>
-    <sheet name="Q&amp;A" sheetId="5" r:id="rId5"/>
+    <sheet name="Project Tracking" sheetId="2" r:id="rId2"/>
+    <sheet name="Reference" sheetId="3" r:id="rId3"/>
+    <sheet name="Q&amp;A" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>Svid</t>
   </si>
@@ -145,10 +144,6 @@
     <t>ID (định danh) của vệ tinh</t>
   </si>
   <si>
-    <t>* Là trạng thái đồng bộ của vệ tinh được biểu diễn bằng số nguyên 
-* mỗi bit của số nguyên liên quan đến thông tin cụ thể của phép đo</t>
-  </si>
-  <si>
     <t>Khái niệm</t>
   </si>
   <si>
@@ -238,10 +233,6 @@
 * Đơn vị: m/s</t>
   </si>
   <si>
-    <t xml:space="preserve">* Là trạng thái khoảng tích lũy giữa vệ tinh và máy điện thoại. 
-* Được biểu diễn bằng số nguyên và mỗi bit trong số nguyên đó biểu diễn trạng thái đo lường </t>
-  </si>
-  <si>
     <t>* Là khoảng cách tích lũy kể từ lần đặt lại kênh lần cuối.
 * Đơn vị: m</t>
   </si>
@@ -252,9 +243,6 @@
   <si>
     <t>*Là độ lệch thời gian thu thập dữ liệu với thời điểm GPS epoch 
 * Đơn vị: ns</t>
-  </si>
-  <si>
-    <t>Tên trường</t>
   </si>
   <si>
     <t>* dữ liệu trên điện thoại là dữ liệu về vị trí của các vệ tinh và dữ liệu về khoảng cách giữa vệ tinh và điện thoại</t>
@@ -418,6 +406,38 @@
   <si>
     <t>chưa hiểu hết đang hiểu đến hàm wls</t>
   </si>
+  <si>
+    <t>21/5</t>
+  </si>
+  <si>
+    <t>Đọc về kalman filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Đã xác định được input: x,y,z tọa độ ecef
+* Chưa biết xác định mối liên hệ giữa các tọa độ này là gì ?
+* Chưa hiểu rõ các ma trận đó hoạt động ra sao ? </t>
+  </si>
+  <si>
+    <t>23/5</t>
+  </si>
+  <si>
+    <t>* Đang đọc lại về ma trận: các khái niệm về chuyển vị, nghịch đảo, vecto riêng
+* Khái niệm về xác xuất thống kế, phương pháp tính: kỳ vọng , phương sai, phân phối chuẩn</t>
+  </si>
+  <si>
+    <t>Giải thích code Kalman Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* giải thích ý nghĩa: 
+v = np.vstack([np.zeros([1, 3]), (v_wls[:-1] + v_wls[1:])/2]) 
+* giải thích ý nghĩa:
+so sánh kalman filter với gt lệch 19m 
+kalman filter hoạt động như theo lí thuyết
+chưa nắm được cách điều chỉnh cũng như hiệu chỉnh dữ liệu </t>
+  </si>
+  <si>
+    <t>Outlier là gì ?</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-101042A]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,20 +488,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF104861"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,13 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -591,16 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -932,28 +925,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" customWidth="1"/>
-    <col min="13" max="13" width="30.21875" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="31.5546875" customWidth="1"/>
-    <col min="16" max="16" width="27.77734375" customWidth="1"/>
-    <col min="17" max="17" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1003,130 +996,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>66</v>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G4" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>71</v>
+      <c r="H4" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1148,444 +1141,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A33FF6-8C3F-4F78-A173-3EA2174C173E}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
-        <f>ROW()-ROW($B$2)+1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
-        <f t="shared" ref="A3:A17" si="0">ROW()-ROW($B$2)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="20">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="15">
         <v>45569</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="20">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="15">
         <v>45600</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
+        <v>45602</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1595,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1603,255 +1391,255 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
-    <col min="3" max="3" width="115.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="29" t="s">
+    <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1883,105 +1671,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F2449-37B5-4276-8163-21E14AFF5210}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="C1" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/DATN_20232/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E1ED29-7B11-41F0-B2A1-C652EE59247D}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A7ADAE-5658-4FE9-AD84-458C6FEB720D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11250" tabRatio="447" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Project Tracking" sheetId="2" r:id="rId2"/>
+    <sheet name="Project Tracking" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Reference" sheetId="3" r:id="rId3"/>
     <sheet name="Q&amp;A" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>Svid</t>
   </si>
@@ -438,6 +438,82 @@
   <si>
     <t>Outlier là gì ?</t>
   </si>
+  <si>
+    <t>Tìm hiểu về GPS Servey Kalman Filter</t>
+  </si>
+  <si>
+    <t>13/6/2024</t>
+  </si>
+  <si>
+    <t>Ngồi đọc lại các lý thuyết</t>
+  </si>
+  <si>
+    <t>* Hiểu ma trận covariance hình thành như nào ?
+* Nhưng chưa biết rõ các phương trình ngoại suy hiệp phương sai, ma trận Q, R</t>
+  </si>
+  <si>
+    <t>14/6/2024</t>
+  </si>
+  <si>
+    <t>Sửa lại code</t>
+  </si>
+  <si>
+    <t>* Lỗi Kernel Python do để nhiều đường dẫn quá k chạy -&gt;&gt; mở lại folder với workspace mới đã được.
+* Lỗi time do k lấy data từ web nasa -&gt;&gt; Fix: thay đổi token đã được.
+* So sánh với gt lệch 15,16m -&gt;&gt; đã up code lên github
+* Vẫn chưa đọc clear lý thuyết -&gt;&gt; Cần nắm lí thuyết</t>
+  </si>
+  <si>
+    <t>Ngồi đọc lý thuyết và viết quyển</t>
+  </si>
+  <si>
+    <t>Kalman filter</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LioOvUZ1MiM?si=cRvp6J2DMGG0uM5q</t>
+  </si>
+  <si>
+    <t>https://www.kalmanfilter.net/VI/default_vi.aspx</t>
+  </si>
+  <si>
+    <t>15/6/2024</t>
+  </si>
+  <si>
+    <t>16/6/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Cần xem video Quang gửi -&gt; Xem cũng giống đọc nông k hiểu sâu tại sao lại có vậy? -&gt;Áp dụng được mấy hình vẽ, có trình bày thì nêu ví dụ giống video
+* Đọc lại lí thuyết: Hiểu rõ về kì vọng, phương sai , độ lệch chuẩn hàm phân bố xác suất (phân bố chuẩn) -&gt; Đã viết quyển 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Cần đọc về hiệp phương sai, ma trận hiệp phương sai -&gt; các bài toán thực tế </t>
+  </si>
+  <si>
+    <t>17/6/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Đã hiêur được ma trận hiệp phương sai là để thể hiện các phương sai và các hiệp phương sai của các biến ngẫu nhiên
+* Thực hiện viết code để xem ma trận hiệp phương sai, hệ số tương quan
+* Ý nghĩa kalman gain -&gt;&gt;&gt; đang xem dở </t>
+  </si>
+  <si>
+    <t>* Ngồi đọc lại về Kalman 1 chiều, hiểu được cách tính hiệp phương sai, kalman gain 1 chiều
+* Viết code tách hàm KalmanFilter -&gt;&gt;&gt; sử dụng class -&gt;&gt;&gt; predict -&gt;&gt;&gt; estimate -&gt;&gt; 
+* Viết quyển bỏo sung được nhưng thứ đã làm</t>
+  </si>
+  <si>
+    <t>18/6/2024</t>
+  </si>
+  <si>
+    <t>19/6/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Cần trình bày slide về thuật toán Kalman Filter
+* Cần tìm hiểu data truyền vào là mảng như nào ?
+   Xử lí từng điểm ra làm sao ?
+   Ma trận P được tính lại như nào ? </t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-101042A]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +564,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,6 +1000,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="15">
+        <v>45569</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="15">
+        <v>45600</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
+        <v>45602</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15">
+        <v>45632</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://thesaigontimes.vn/lam-quen-voi-he-thong-thong-tin-ve-tinh/" xr:uid="{C30495B8-B81C-4BA7-AAEE-8B6D54A5A0E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -925,28 +1399,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
@@ -1087,7 +1561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1140,265 +1614,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="15">
-        <v>45569</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="15">
-        <v>45600</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="15">
-        <v>45602</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://thesaigontimes.vn/lam-quen-voi-he-thong-thong-tin-ve-tinh/" xr:uid="{C30495B8-B81C-4BA7-AAEE-8B6D54A5A0E9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" customWidth="1"/>
-    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="115.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1420,7 +1651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1431,7 +1662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1442,7 +1673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1453,7 +1684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1464,7 +1695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1475,7 +1706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1486,7 +1717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1497,7 +1728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1508,7 +1739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1519,7 +1750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1530,7 +1761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1541,7 +1772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1552,7 +1783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1563,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -1574,14 +1805,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -1592,7 +1823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -1603,7 +1834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -1614,29 +1845,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1666,6 +1903,8 @@
     <hyperlink ref="C18" r:id="rId17" xr:uid="{12CAB9F8-CDBE-486C-ADD6-A2C46392E1A9}"/>
     <hyperlink ref="C19" r:id="rId18" display="https://github.com/google/gps-measurement-tools/releases" xr:uid="{7E583E77-52DF-49DF-B6B2-1771E491A285}"/>
     <hyperlink ref="C20" r:id="rId19" xr:uid="{C76C1A28-8D47-4835-8F8E-3A1884B5F0D9}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{2A0CEF6B-C926-4588-8942-C6921D0D3165}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{75EB53ED-F1D9-42D9-8A9B-17F1FDB3AD39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1675,17 +1914,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F2449-37B5-4276-8163-21E14AFF5210}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
@@ -1696,7 +1935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1707,7 +1946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1718,7 +1957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1729,7 +1968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1740,7 +1979,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1751,7 +1990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1760,17 +1999,17 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/DATN_20232/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan1\OneDrive\Desktop\DATN_20232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="660" documentId="11_F25DC773A252ABDACC1048D9019D56EA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A7ADAE-5658-4FE9-AD84-458C6FEB720D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA888F63-9F89-43A4-B222-438B133664A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="138">
   <si>
     <t>Svid</t>
   </si>
@@ -509,10 +509,22 @@
     <t>19/6/2024</t>
   </si>
   <si>
+    <t>20/6/2024</t>
+  </si>
+  <si>
+    <t>Thực hiện thêm IMU vào kalmanfilter</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Cần trình bày slide về thuật toán Kalman Filter
-* Cần tìm hiểu data truyền vào là mảng như nào ?
-   Xử lí từng điểm ra làm sao ?
-   Ma trận P được tính lại như nào ? </t>
+* Cần tìm hiểu data truyền vào là mảng như nào ? -&gt; sẽ truyền vào một dataframe , dữ liệu đọc sẽ được đưa vào từng điểm để ước tính lại
+   Xử lí từng điểm ra làm sao ? -&gt; xử lí khi có dữ liệu 2 điểm 
+   Ma trận P được tính lại như nào ? -&gt; ma trận P là ma trận hiệp phương sau của dự đoán.
+* Họp thầy yêu cầu bảo thêm IMU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Xử lí data -&gt; đưa về theo utcTimeMilis của tệp gnss, lọc data từ tệp imu
+* gom data trong khoảng tgian của gnss cho tệp imu , các data cảm biến được tính trung bình trong tgian đó.
+* Tìm thuật toán áp dụng cho kalman filter </t>
   </si>
 </sst>
 </file>
@@ -732,10 +744,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1270,19 +1278,21 @@
         <v>121</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan1\OneDrive\Desktop\DATN_20232\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_20232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA888F63-9F89-43A4-B222-438B133664A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E94C1E-4AA5-46F2-B7D5-29B3724BF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracking" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
   <si>
     <t>Svid</t>
   </si>
@@ -525,6 +525,13 @@
     <t xml:space="preserve">* Xử lí data -&gt; đưa về theo utcTimeMilis của tệp gnss, lọc data từ tệp imu
 * gom data trong khoảng tgian của gnss cho tệp imu , các data cảm biến được tính trung bình trong tgian đó.
 * Tìm thuật toán áp dụng cho kalman filter </t>
+  </si>
+  <si>
+    <t>21/6/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* từ khóa fusion: dung hợp IMU GPS for kalman filter , Inertial: quán tính
+* Tìm code github: chuyển sang python để chạy: cần phải lấy data gồm imu, gnss(đã sang ecef và velocity) để đưua vào kalman </t>
   </si>
 </sst>
 </file>
@@ -1011,20 +1018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="15">
@@ -1067,7 +1074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="15">
@@ -1078,14 +1085,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1094,7 +1101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1105,7 +1112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1116,7 +1123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1127,7 +1134,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1140,7 +1147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1153,7 +1160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1166,7 +1173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="15">
@@ -1179,7 +1186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="15">
@@ -1190,7 +1197,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1203,7 +1210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1216,7 +1223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1229,7 +1236,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1242,7 +1249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1255,7 +1262,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1268,7 +1275,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1281,7 +1288,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1294,18 +1301,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -1316,7 +1325,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
@@ -1327,7 +1336,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
@@ -1338,7 +1347,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -1347,7 +1356,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -1356,7 +1365,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -1365,7 +1374,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -1374,7 +1383,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
@@ -1383,7 +1392,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
@@ -1409,28 +1418,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="31.5546875" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1632,14 +1641,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
-    <col min="3" max="3" width="115.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -1815,14 +1824,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -1866,24 +1875,24 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1928,13 +1937,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2009,17 +2018,17 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_20232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E94C1E-4AA5-46F2-B7D5-29B3724BF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03CEED-A01A-4561-88FB-762D82545B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracking" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>Svid</t>
   </si>
@@ -532,6 +532,30 @@
   <si>
     <t xml:space="preserve">* từ khóa fusion: dung hợp IMU GPS for kalman filter , Inertial: quán tính
 * Tìm code github: chuyển sang python để chạy: cần phải lấy data gồm imu, gnss(đã sang ecef và velocity) để đưua vào kalman </t>
+  </si>
+  <si>
+    <t>22/6/2024</t>
+  </si>
+  <si>
+    <t>23/6/2024</t>
+  </si>
+  <si>
+    <t>24/6/2024</t>
+  </si>
+  <si>
+    <t>* pitch, roll, yaw: nghiêng, cuộn, đứng</t>
+  </si>
+  <si>
+    <t>Sensor Fusion With Kalman Filter. Introduction | by Satya | Medium</t>
+  </si>
+  <si>
+    <t>Kalman-Filter-for-Sensor-Fusion/Kalman_Filter.ipynb at master · sharathsrini/Kalman-Filter-for-Sensor-Fusion (github.com)</t>
+  </si>
+  <si>
+    <t>https://github.com/deep-zspace/SensorFusion-KalmanFilter/tree/main</t>
+  </si>
+  <si>
+    <t>https://github.com/alirezaahmadi/KalmanFilter-Vehicle-GNSS-INS/blob/master/code/KalmanFilter.m</t>
   </si>
 </sst>
 </file>
@@ -662,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -734,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,6 +778,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An illustration of the three angles yaw, pitch and roll ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1C4C1C-DA31-05F5-99D7-0EE087A4FF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10391774" y="16577310"/>
+          <a:ext cx="2124075" cy="1359408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1411,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>121</v>
@@ -1329,7 +1422,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -1340,12 +1433,14 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1407,6 +1502,7 @@
     <hyperlink ref="E6" r:id="rId1" display="https://thesaigontimes.vn/lam-quen-voi-he-thong-thong-tin-ve-tinh/" xr:uid="{C30495B8-B81C-4BA7-AAEE-8B6D54A5A0E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1635,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1934,7 @@
       <c r="B18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1849,7 +1945,7 @@
       <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1885,17 +1981,29 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="9" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1924,6 +2032,10 @@
     <hyperlink ref="C20" r:id="rId19" xr:uid="{C76C1A28-8D47-4835-8F8E-3A1884B5F0D9}"/>
     <hyperlink ref="C21" r:id="rId20" xr:uid="{2A0CEF6B-C926-4588-8942-C6921D0D3165}"/>
     <hyperlink ref="C22" r:id="rId21" xr:uid="{75EB53ED-F1D9-42D9-8A9B-17F1FDB3AD39}"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://medium.com/@satya15july_11937/sensor-fusion-with-kalman-filter-c648d6ec2ec2" xr:uid="{2F86E7BA-5188-45B8-840F-37F5EA244674}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://github.com/sharathsrini/Kalman-Filter-for-Sensor-Fusion/blob/master/Kalman_Filter.ipynb" xr:uid="{157F698F-6F4B-4700-8834-964AA0F9FA58}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{681AC869-21B5-4C7A-991B-7FD2CEC00048}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{C7ED0278-ADE2-4C8C-8E73-7D3FFA3FF337}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_20232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03CEED-A01A-4561-88FB-762D82545B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF95E00-1FD0-4FAA-9931-AD4CF364136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
   <si>
     <t>Svid</t>
   </si>
@@ -556,6 +556,54 @@
   </si>
   <si>
     <t>https://github.com/alirezaahmadi/KalmanFilter-Vehicle-GNSS-INS/blob/master/code/KalmanFilter.m</t>
+  </si>
+  <si>
+    <t>https://oduerr.github.io/gesture/ypr_calculations.html</t>
+  </si>
+  <si>
+    <t>25/6/2024</t>
+  </si>
+  <si>
+    <t>* Chuyển đổi các hệ trục body -&gt; ecef hoặc body -&gt; enu hoặc sang ned</t>
+  </si>
+  <si>
+    <t>Transformations between ECEF and ENU coordinates - Navipedia (esa.int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECEF to ENU and convert </t>
+  </si>
+  <si>
+    <t>YawPitchRollCalculation (oduerr.github.io)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitch, yaw, roll </t>
+  </si>
+  <si>
+    <t>Accelerometer, Gyroscope, Magnetometer dùng để làm gì? | by att288 | Medium</t>
+  </si>
+  <si>
+    <t>Accelerometer, Gyroscope, Magnetometer dùng để làm gì?</t>
+  </si>
+  <si>
+    <t>https://medium.com/@niru5/intro-to-inertial-measurement-unit-imu-part-1-47f19fc7d68d?source=author_recirc-----2887261e7245----0---------------------c1e761b4_2caf_45b5_9550_82af4e6bb96e-------</t>
+  </si>
+  <si>
+    <t>Quaternions</t>
+  </si>
+  <si>
+    <t>https://minhcly.wordpress.com/2014/01/30/quarternion-va-phep-quay-khong-gian-phan-1/</t>
+  </si>
+  <si>
+    <t>Fusion of Accelerometer, magnetometer data with gyroscope Part 2 | by Niranjan Reddy | Medium</t>
+  </si>
+  <si>
+    <t>(2) Trực quan hóa quaternions (số 4d) bằng phép chiếu lập thể - YouTube</t>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/Quaternion</t>
+  </si>
+  <si>
+    <t>imusensor/imusensor/filters/kalman.py at master · niru-5/imusensor (github.com)</t>
   </si>
 </sst>
 </file>
@@ -747,6 +795,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -758,9 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,7 +1160,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,10 +1494,14 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1731,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,10 +1962,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1921,8 +1973,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9" t="s">
         <v>82</v>
       </c>
@@ -1995,7 +2047,7 @@
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2003,6 +2055,68 @@
       <c r="B26" s="3"/>
       <c r="C26" s="9" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2036,6 +2150,15 @@
     <hyperlink ref="C24" r:id="rId23" display="https://github.com/sharathsrini/Kalman-Filter-for-Sensor-Fusion/blob/master/Kalman_Filter.ipynb" xr:uid="{157F698F-6F4B-4700-8834-964AA0F9FA58}"/>
     <hyperlink ref="C25" r:id="rId24" xr:uid="{681AC869-21B5-4C7A-991B-7FD2CEC00048}"/>
     <hyperlink ref="C26" r:id="rId25" xr:uid="{C7ED0278-ADE2-4C8C-8E73-7D3FFA3FF337}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{F1AA7787-89E6-4C8D-926C-94C6A110D4A2}"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://gssc.esa.int/navipedia/index.php/Transformations_between_ECEF_and_ENU_coordinates" xr:uid="{3E9E13DB-A1A3-45E6-A58D-9D352F4ECC63}"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://oduerr.github.io/gesture/ypr_calculations.html" xr:uid="{BC592D91-715B-4070-A905-4B5EB8929A8D}"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://att288.medium.com/accelerometer-gyroscope-magnetometer-d%C3%B9ng-%C4%91%E1%BB%83-l%C3%A0m-g%C3%AC-a7a2580705f4" xr:uid="{BE0906FA-6492-4ED2-8955-8BFAF31C61A2}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{99384BA1-D319-480B-9D34-85A6346FD20D}"/>
+    <hyperlink ref="C33" r:id="rId31" display="https://medium.com/@niru5/fusion-of-accelerometer-magnetometer-data-with-gyroscope-part-2-2887261e7245" xr:uid="{A1665D39-655F-4510-B64B-D0617BF41CD4}"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://www.youtube.com/watch?v=d4EgbgTm0Bg" xr:uid="{F5C44C7C-0CAB-4452-A212-7DFD0E907FF2}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{06ABDA18-6584-4B1F-8D2B-A1BBAAABE0DB}"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://github.com/niru-5/imusensor/blob/master/imusensor/filters/kalman.py" xr:uid="{F0E60F5C-5931-4C78-A736-33B2C58EDA55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tham khảo.xlsx
+++ b/Tham khảo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_20232\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF95E00-1FD0-4FAA-9931-AD4CF364136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F25BBC-9160-4622-A321-A9487F070A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
   <si>
     <t>Svid</t>
   </si>
@@ -604,6 +604,15 @@
   </si>
   <si>
     <t>imusensor/imusensor/filters/kalman.py at master · niru-5/imusensor (github.com)</t>
+  </si>
+  <si>
+    <t>GPS-IMU Sensor Fusion for Reliable Autonomous</t>
+  </si>
+  <si>
+    <t>Vehicle Position Estimation</t>
+  </si>
+  <si>
+    <t>UKF</t>
   </si>
 </sst>
 </file>
@@ -1783,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,24 +2108,37 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
